--- a/SCH-STH/Impact assessments/Benin/2024/Oct 2024/bj_sch_sth_impact_2410_2_child_v1.xlsx
+++ b/SCH-STH/Impact assessments/Benin/2024/Oct 2024/bj_sch_sth_impact_2410_2_child_v1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Benin\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\SCH-STH\Impact assessments\Benin\2024\Oct 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CAEAC0-AAB9-47CA-9D7B-54A331BE496F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F010931-9C28-4A21-A122-9450B3EC3C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="245">
   <si>
     <t>type</t>
   </si>
@@ -682,15 +682,6 @@
     <t>Maximum 99</t>
   </si>
   <si>
-    <t>affections_list</t>
-  </si>
-  <si>
-    <t>SCH</t>
-  </si>
-  <si>
-    <t>SCH+STH</t>
-  </si>
-  <si>
     <t>concat(${p_site_code},'-',if(${p_num}&lt;10, concat('0', ${p_num}), ${p_num}))</t>
   </si>
   <si>
@@ -802,13 +793,13 @@
     <t>Cet identifiant est déjà utilisé</t>
   </si>
   <si>
-    <t>(2024 Janvier) - 2. SCH/STH – Enrôlement V3.2</t>
-  </si>
-  <si>
-    <t>bj_sch_sth_impact_202401_2_child_v3_2</t>
-  </si>
-  <si>
-    <t>bj_e2_1</t>
+    <t>(2024 Octobre) - 2. SCH/STH – Enrôlement</t>
+  </si>
+  <si>
+    <t>bj_sch_sth_impact_2410_2_child</t>
+  </si>
+  <si>
+    <t>bj_p_2410</t>
   </si>
 </sst>
 </file>
@@ -1616,10 +1607,10 @@
     </row>
     <row r="8" spans="1:16" s="19" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="10"/>
@@ -1631,7 +1622,7 @@
       <c r="J8" s="11"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M8" s="30"/>
       <c r="N8" s="9"/>
@@ -1639,17 +1630,17 @@
     </row>
     <row r="9" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="35" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="8"/>
@@ -1664,10 +1655,10 @@
     </row>
     <row r="10" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C10" s="29"/>
       <c r="D10" s="10"/>
@@ -1679,7 +1670,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M10" s="30"/>
       <c r="N10" s="9"/>
@@ -1687,10 +1678,10 @@
     </row>
     <row r="11" spans="1:16" s="19" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="10"/>
@@ -1702,7 +1693,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M11" s="30"/>
       <c r="N11" s="9"/>
@@ -1713,7 +1704,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>24</v>
@@ -1744,7 +1735,7 @@
         <v>30</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C13" s="29" t="s">
         <v>158</v>
@@ -1767,7 +1758,7 @@
         <v>189</v>
       </c>
       <c r="K13" s="36" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L13" s="9"/>
       <c r="M13" s="30" t="s">
@@ -1781,7 +1772,7 @@
         <v>159</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C14" s="29" t="s">
         <v>161</v>
@@ -1796,7 +1787,7 @@
       <c r="I14" s="10"/>
       <c r="J14" s="11"/>
       <c r="K14" s="36" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L14" s="9"/>
       <c r="M14" s="30" t="s">
@@ -1810,7 +1801,7 @@
         <v>34</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C15" s="29" t="s">
         <v>35</v>
@@ -1825,7 +1816,7 @@
       <c r="I15" s="10"/>
       <c r="J15" s="11"/>
       <c r="K15" s="36" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L15" s="9"/>
       <c r="M15" s="30" t="s">
@@ -1856,7 +1847,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>31</v>
@@ -1877,7 +1868,7 @@
         <v>198</v>
       </c>
       <c r="K17" s="36" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L17" s="9"/>
       <c r="M17" s="9" t="s">
@@ -1891,7 +1882,7 @@
         <v>169</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>170</v>
@@ -1906,7 +1897,7 @@
       <c r="I18" s="10"/>
       <c r="J18" s="11"/>
       <c r="K18" s="36" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L18" s="9"/>
       <c r="M18" s="30" t="s">
@@ -1920,7 +1911,7 @@
         <v>169</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>173</v>
@@ -1935,7 +1926,7 @@
       <c r="I19" s="10"/>
       <c r="J19" s="11"/>
       <c r="K19" s="36" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
@@ -1947,7 +1938,7 @@
         <v>29</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C20" s="34" t="s">
         <v>175</v>
@@ -1959,19 +1950,19 @@
       <c r="F20" s="11"/>
       <c r="G20" s="8"/>
       <c r="H20" s="19" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="K20" s="36" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L20" s="36" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M20" s="30" t="s">
         <v>16</v>
@@ -2021,7 +2012,7 @@
         <v>28</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>37</v>
@@ -2040,7 +2031,7 @@
       <c r="I23" s="26"/>
       <c r="J23" s="27"/>
       <c r="K23" s="37" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L23" s="8"/>
       <c r="M23" s="9" t="s">
@@ -2054,7 +2045,7 @@
         <v>28</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>37</v>
@@ -2069,7 +2060,7 @@
       <c r="I24" s="26"/>
       <c r="J24" s="27"/>
       <c r="K24" s="36" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L24" s="8"/>
       <c r="M24" s="9" t="s">
@@ -2083,7 +2074,7 @@
         <v>42</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>43</v>
@@ -2098,7 +2089,7 @@
       <c r="I25" s="26"/>
       <c r="J25" s="27"/>
       <c r="K25" s="36" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L25" s="8"/>
       <c r="M25" s="9"/>
@@ -2110,7 +2101,7 @@
         <v>28</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>45</v>
@@ -2122,7 +2113,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="8"/>
       <c r="H26" s="37" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I26" s="26" t="s">
         <v>47</v>
@@ -2131,7 +2122,7 @@
         <v>48</v>
       </c>
       <c r="K26" s="36" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L26" s="8"/>
       <c r="M26" s="9"/>
@@ -2143,7 +2134,7 @@
         <v>22</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C27" s="23" t="s">
         <v>49</v>
@@ -2158,7 +2149,7 @@
       <c r="I27" s="13"/>
       <c r="J27" s="14"/>
       <c r="K27" s="37" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
@@ -2170,7 +2161,7 @@
         <v>22</v>
       </c>
       <c r="B28" s="39" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C28" s="23" t="s">
         <v>51</v>
@@ -2185,7 +2176,7 @@
       <c r="I28" s="13"/>
       <c r="J28" s="14"/>
       <c r="K28" s="37" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
@@ -2197,7 +2188,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C29" s="23" t="s">
         <v>53</v>
@@ -2219,7 +2210,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B30" s="22"/>
       <c r="C30" s="23"/>
@@ -2290,11 +2281,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2343,35 +2334,31 @@
       <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
+      <c r="A3" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
-        <v>205</v>
+      <c r="A4" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>207</v>
+        <v>64</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>207</v>
+        <v>65</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>207</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2381,93 +2368,101 @@
       <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>62</v>
+      <c r="A6" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
+      <c r="A8" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>67</v>
+      <c r="A9" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>68</v>
+      <c r="A10" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2475,13 +2470,13 @@
         <v>76</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2489,13 +2484,13 @@
         <v>76</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2503,139 +2498,139 @@
         <v>76</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2643,13 +2638,13 @@
         <v>111</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2657,13 +2652,13 @@
         <v>111</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2671,13 +2666,13 @@
         <v>111</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2685,167 +2680,167 @@
         <v>111</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>125</v>
+      <c r="A29" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>126</v>
+      <c r="A30" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>128</v>
+      <c r="A31" t="s">
+        <v>137</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
-        <v>130</v>
+      <c r="A32" t="s">
+        <v>137</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
-        <v>130</v>
+      <c r="A33" t="s">
+        <v>137</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>137</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>140</v>
+      <c r="B34" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>137</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>143</v>
+      <c r="B35" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>137</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>137</v>
-      </c>
-      <c r="B37" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="C37" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="D37" s="28" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>137</v>
-      </c>
-      <c r="B38" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="C38" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="D38" s="28" t="s">
-        <v>148</v>
+      <c r="B36" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>137</v>
-      </c>
-      <c r="B39" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="C39" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="D39" s="28" t="s">
-        <v>149</v>
+      <c r="A39" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="D40" s="33" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="C41" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="D41" s="33" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -2853,13 +2848,13 @@
         <v>162</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C42" s="33" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D42" s="33" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2867,13 +2862,13 @@
         <v>162</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C43" s="33" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D43" s="33" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2881,54 +2876,12 @@
         <v>162</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C44" s="33" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D44" s="33" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="B45" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="C45" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="D45" s="33" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="B46" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="C46" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="D46" s="33" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="B47" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="C47" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="D47" s="33" t="s">
         <v>168</v>
       </c>
     </row>
@@ -2944,7 +2897,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2964,12 +2917,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C2" t="s">
         <v>153</v>
